--- a/data/estuarine/raw/dt_wq_estuarine_metadata.xlsx
+++ b/data/estuarine/raw/dt_wq_estuarine_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\GitHub\spatial-analyses\data\02. dry_tropics\dt_water-quality_estuarine\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\GitHub\RcWaterQuality\data\estuarine\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7E2AA4-B70A-4079-98F8-1F30E7C05912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B4DAD6-5389-40B2-B3BE-0D3FC84A510A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BF71D581-F6B3-4658-B4B9-A43EB1317458}"/>
   </bookViews>
@@ -24,8 +24,8 @@
     <sheet name="SF_Sources" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Sites!$A$1:$M$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Historic_Sites!$F$1:$M$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Sites!$A$1:$M$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Historic_Sites!$A$1:$N$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">LOR!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">SF!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">WQO!$E$2:$F$11</definedName>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="194">
   <si>
     <t>DT</t>
   </si>
@@ -932,13 +932,27 @@
   <si>
     <t>WatercourseOrGeographicArea</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Not Ambient</t>
+  </si>
+  <si>
+    <t>Moved to Inshore</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>ORNATAS Shutdown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
@@ -1039,10 +1053,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,12 +1083,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1088,16 +1097,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1528,155 +1537,155 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
@@ -1747,193 +1756,186 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="23"/>
+      <c r="X16" s="20"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A20:U20"/>
     <mergeCell ref="A21:Z21"/>
     <mergeCell ref="A22:T22"/>
@@ -1948,6 +1950,13 @@
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A19:AC19"/>
     <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1955,999 +1964,767 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9AC74A-C08C-4D4E-88DB-FD88E774A295}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>53</v>
       </c>
       <c r="I2">
-        <v>11.0158865359966</v>
-      </c>
-      <c r="J2">
-        <v>7.9576684830461E-2</v>
-      </c>
-      <c r="K2" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.69400000000000006</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>-19.257922682</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>146.82208993</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>53</v>
       </c>
       <c r="I3">
-        <v>11.0158865359966</v>
-      </c>
-      <c r="J3">
-        <v>7.9576684830461E-2</v>
-      </c>
-      <c r="K3" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.69400000000000006</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>-19.255522968000001</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <v>146.82649832499999</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>54</v>
       </c>
       <c r="I4">
-        <v>11.0158865359966</v>
-      </c>
-      <c r="J4">
-        <v>7.9576684830461E-2</v>
-      </c>
-      <c r="K4" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.69400000000000006</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>-19.273584940999999</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>146.83213231600001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>94</v>
       </c>
       <c r="I5">
-        <v>86.166521661264099</v>
-      </c>
-      <c r="J5">
-        <v>0.62245068653978697</v>
-      </c>
-      <c r="K5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>-19.302388174000001</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>146.91072579900001</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>92</v>
       </c>
       <c r="I6">
-        <v>15.9533669958627</v>
-      </c>
-      <c r="J6">
-        <v>0.11524411160792</v>
-      </c>
-      <c r="K6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="11">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>-19.292331731000001</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <v>146.85723098899999</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>93</v>
       </c>
       <c r="I7">
-        <v>15.9533669958627</v>
-      </c>
-      <c r="J7">
-        <v>0.11524411160792</v>
-      </c>
-      <c r="K7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="11">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <v>-19.296915236</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>146.859235351</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>101</v>
       </c>
       <c r="I8">
-        <v>25.295306215532499</v>
-      </c>
-      <c r="J8">
-        <v>0.18272851702183199</v>
-      </c>
-      <c r="K8" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.27949999999999997</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>-19.208665018000001</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>146.71822233399999</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>91</v>
       </c>
       <c r="I9">
-        <v>25.295306215532499</v>
-      </c>
-      <c r="J9">
-        <v>0.18272851702183199</v>
-      </c>
-      <c r="K9" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.27949999999999997</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>-19.230928326000001</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <v>146.73311234600001</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>100</v>
       </c>
       <c r="I10">
-        <v>25.295306215532499</v>
-      </c>
-      <c r="J10">
-        <v>0.18272851702183199</v>
-      </c>
-      <c r="K10" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.27949999999999997</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="13">
         <v>-19.208838114999999</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="13">
         <v>146.70756744100001</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>90</v>
       </c>
       <c r="I11">
-        <v>25.295306215532499</v>
-      </c>
-      <c r="J11">
-        <v>0.18272851702183199</v>
-      </c>
-      <c r="K11" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.27949999999999997</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>-19.220241380000001</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>146.73606933600001</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>46</v>
       </c>
       <c r="I12">
-        <v>4.9081973947806397</v>
-      </c>
-      <c r="J12">
-        <v>0.46513259075401098</v>
-      </c>
-      <c r="K12" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <v>-19.16563</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>146.59478999999999</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>47</v>
       </c>
       <c r="I13">
-        <v>4.9081973947806397</v>
-      </c>
-      <c r="J13">
-        <v>0.46513259075401098</v>
-      </c>
-      <c r="K13" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="13">
         <v>-19.158480000000001</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="13">
         <v>146.57998000000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I14">
-        <v>4.9081973947806397</v>
-      </c>
-      <c r="J14">
-        <v>0.46513259075401098</v>
-      </c>
-      <c r="K14" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="13">
         <v>-19.124590000000001</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="13">
         <v>146.52509000000001</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>97</v>
+      <c r="E15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="I15">
-        <v>2.8641617477687999</v>
-      </c>
-      <c r="J15">
-        <v>0.271426527281668</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="14">
-        <v>-19.104970000000002</v>
-      </c>
-      <c r="M15" s="14">
-        <v>146.48242999999999</v>
+        <v>135</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="13">
+        <v>-19.014399999999998</v>
+      </c>
+      <c r="M15" s="13">
+        <v>146.40469999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>96</v>
+      <c r="E16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="I16">
-        <v>2.8641617477687999</v>
-      </c>
-      <c r="J16">
-        <v>0.271426527281668</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="14">
-        <v>-19.099979999999999</v>
-      </c>
-      <c r="M16" s="14">
-        <v>146.48626999999999</v>
+        <v>135</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="13">
+        <v>-19.085650000000001</v>
+      </c>
+      <c r="M16" s="13">
+        <v>146.47467</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>95</v>
+      <c r="D17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="I17">
-        <v>2.8641617477687999</v>
-      </c>
-      <c r="J17">
-        <v>0.271426527281668</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="14">
-        <v>-19.09798</v>
-      </c>
-      <c r="M17" s="14">
-        <v>146.4898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18">
-        <v>2.8641617477687999</v>
-      </c>
-      <c r="J18">
-        <v>0.271426527281668</v>
-      </c>
-      <c r="K18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.22260000000000002</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="14">
-        <v>-19.014399999999998</v>
-      </c>
-      <c r="M18" s="14">
-        <v>146.40469999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19">
-        <v>2.8641617477687999</v>
-      </c>
-      <c r="J19">
-        <v>0.271426527281668</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="14">
-        <v>-19.09206</v>
-      </c>
-      <c r="M19" s="14">
-        <v>146.46858</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20">
-        <v>2.8641617477687999</v>
-      </c>
-      <c r="J20">
-        <v>0.271426527281668</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" s="14">
-        <v>-19.086580000000001</v>
-      </c>
-      <c r="M20" s="14">
-        <v>146.47281000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21">
-        <v>2.8641617477687999</v>
-      </c>
-      <c r="J21">
-        <v>0.271426527281668</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="22">
-        <v>-19.08361</v>
-      </c>
-      <c r="M21" s="22">
-        <v>146.47669999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22">
-        <v>2.8641617477687999</v>
-      </c>
-      <c r="J22">
-        <v>0.271426527281668</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="14">
-        <v>-19.085650000000001</v>
-      </c>
-      <c r="M22" s="14">
-        <v>146.47467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23">
-        <v>2.7798951873914599</v>
-      </c>
-      <c r="J23">
-        <v>0.26344088196432103</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="14">
+      <c r="L17" s="13">
         <v>-18.926950000000001</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M17" s="13">
         <v>146.31318999999999</v>
       </c>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J38"/>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J46"/>
-    </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J47"/>
-    </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J50"/>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M32" xr:uid="{7E9AC74A-C08C-4D4E-88DB-FD88E774A295}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M32">
-      <sortCondition descending="1" ref="C1:C32"/>
+  <autoFilter ref="A1:M26" xr:uid="{7E9AC74A-C08C-4D4E-88DB-FD88E774A295}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M26">
+      <sortCondition descending="1" ref="C1:C26"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2958,91 +2735,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35439B6-9EA3-4989-9719-9060428BCDAD}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="7.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="N1" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>163</v>
       </c>
       <c r="I2">
@@ -3051,36 +2831,39 @@
       <c r="J2">
         <v>0.18272851702183199</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>-19.251435041000001</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>146.74646751500001</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="N2" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>165</v>
       </c>
       <c r="I3">
@@ -3089,36 +2872,39 @@
       <c r="J3">
         <v>7.9576684830461E-2</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>-19.245849768999999</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <v>146.83279805000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="N3" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>164</v>
       </c>
       <c r="I4">
@@ -3127,36 +2913,39 @@
       <c r="J4">
         <v>0.11524411160792</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>-19.28412153</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>146.85187978499999</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="N4" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>162</v>
       </c>
       <c r="I5">
@@ -3165,36 +2954,39 @@
       <c r="J5">
         <v>0.271426527281668</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>-19.100909999999999</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>146.51326</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="N5" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>161</v>
       </c>
       <c r="I6">
@@ -3203,36 +2995,39 @@
       <c r="J6">
         <v>0.271426527281668</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <v>-19.109400000000001</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <v>146.5136</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="N6" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="I7">
@@ -3241,18 +3036,285 @@
       <c r="J7">
         <v>0.46513259075401098</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <v>-19.115670000000001</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>146.53425999999999</v>
       </c>
+      <c r="N7" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8">
+        <v>135</v>
+      </c>
+      <c r="J8">
+        <v>25.47</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="13">
+        <v>-19.104970000000002</v>
+      </c>
+      <c r="M8" s="13">
+        <v>146.48242999999999</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9">
+        <v>135</v>
+      </c>
+      <c r="J9">
+        <v>25.47</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="13">
+        <v>-19.099979999999999</v>
+      </c>
+      <c r="M9" s="13">
+        <v>146.48626999999999</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10">
+        <v>135</v>
+      </c>
+      <c r="J10">
+        <v>25.47</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="13">
+        <v>-19.09798</v>
+      </c>
+      <c r="M10" s="13">
+        <v>146.4898</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11">
+        <v>135</v>
+      </c>
+      <c r="J11">
+        <v>25.47</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="13">
+        <v>-19.09206</v>
+      </c>
+      <c r="M11" s="13">
+        <v>146.46858</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12">
+        <v>135</v>
+      </c>
+      <c r="J12">
+        <v>25.47</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="13">
+        <v>-19.086580000000001</v>
+      </c>
+      <c r="M12" s="13">
+        <v>146.47281000000001</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13">
+        <v>135</v>
+      </c>
+      <c r="J13">
+        <v>25.47</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="19">
+        <v>-19.08361</v>
+      </c>
+      <c r="M13" s="19">
+        <v>146.47669999999999</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:M4" xr:uid="{7E9AC74A-C08C-4D4E-88DB-FD88E774A295}"/>
+  <autoFilter ref="A1:N7" xr:uid="{A35439B6-9EA3-4989-9719-9060428BCDAD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -3540,7 +3602,7 @@
       <c r="H5">
         <v>0.5</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>1E-3</v>
       </c>
     </row>
@@ -3674,72 +3736,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.5703125" style="3"/>
+    <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -3778,34 +3840,34 @@
       <c r="L8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="1:29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F9">
@@ -3814,39 +3876,39 @@
       <c r="G9">
         <v>0.02</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="17">
         <v>0.05</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="17">
         <v>20</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="17">
         <v>105</v>
       </c>
       <c r="K9">
         <v>85</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="17">
         <v>0.02</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="17">
         <v>0.02</v>
       </c>
       <c r="F10">
@@ -3855,24 +3917,24 @@
       <c r="G10">
         <v>0.02</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="17">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="17">
         <v>8</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="17">
         <v>105</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="17">
         <v>85</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="17">
         <v>0.02</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:29" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3921,180 +3983,180 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22" style="3" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="8" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.140625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="8" style="2" customWidth="1"/>
+    <col min="25" max="25" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.140625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -4124,13 +4186,13 @@
       <c r="I9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B10">
@@ -4157,13 +4219,13 @@
       <c r="I10">
         <v>1E-3</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B11">
@@ -4190,13 +4252,13 @@
       <c r="I11">
         <v>1E-3</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B12">
@@ -4223,10 +4285,10 @@
       <c r="I12">
         <v>1E-3</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B13">
@@ -4250,46 +4312,46 @@
       <c r="H13">
         <v>0.5</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>1E-3</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4331,46 +4393,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -4402,7 +4464,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B9">
@@ -4431,7 +4493,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -4679,6 +4741,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a04b7680-e269-4f87-b21c-839602379be9" xsi:nil="true"/>
@@ -4687,15 +4758,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4718,6 +4780,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B81E00C-E901-4669-ABDF-81BBA731F4AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20DE941F-A6BB-409F-B0E0-AE0C5AA57E5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4726,12 +4796,4 @@
     <ds:schemaRef ds:uri="f871ce7c-31cb-4f48-8d8c-60ea4a8c1693"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B81E00C-E901-4669-ABDF-81BBA731F4AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>